--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value557.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value557.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4122238693767452</v>
+        <v>1.264813303947449</v>
       </c>
       <c r="B1">
-        <v>0.5305769743407909</v>
+        <v>1.394700646400452</v>
       </c>
       <c r="C1">
-        <v>0.7995451626558143</v>
+        <v>1.660661816596985</v>
       </c>
       <c r="D1">
-        <v>2.642883664889817</v>
+        <v>2.93171501159668</v>
       </c>
       <c r="E1">
-        <v>3.527259591317518</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
